--- a/assets/Template_Output.xlsx
+++ b/assets/Template_Output.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF2EC23-D74D-4822-B5BE-73DDB576E59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933B98B9-D97E-4D4B-B214-C657FFEC3377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -339,22 +339,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,147 +725,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="10" t="s">
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="Y1" s="10"/>
+      <c r="Y1" s="8"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="11" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="11"/>
+      <c r="Y2" s="13"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -898,80 +898,80 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="12" t="s">
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10" t="s">
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10" t="s">
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10" t="s">
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10" t="s">
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10" t="s">
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AA11" s="10" t="s">
+      <c r="AA11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AB11" s="10" t="s">
+      <c r="AB11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AC11" s="12" t="s">
+      <c r="AC11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AD11" s="10" t="s">
+      <c r="AD11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AE11" s="10" t="s">
+      <c r="AE11" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="3" t="s">
         <v>27</v>
       </c>
@@ -981,7 +981,7 @@
       <c r="H12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="12"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="3" t="s">
         <v>30</v>
       </c>
@@ -1030,12 +1030,12 @@
       <c r="Y12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" ref="I13:I42" si="0">F13+G13-H13</f>
+        <f t="shared" ref="I13" si="0">F13+G13-H13</f>
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -1109,9 +1109,9 @@
       <c r="Z13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AA13" s="6" t="e">
-        <f t="shared" ref="AA13:AA42" si="1">I13-U13</f>
-        <v>#VALUE!</v>
+      <c r="AA13" s="6">
+        <f>IFERROR(I13-U13,0)</f>
+        <v>0</v>
       </c>
       <c r="AB13" s="1" t="s">
         <v>47</v>
@@ -2164,110 +2164,103 @@
       <c r="A57" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="13"/>
-      <c r="T57" s="13"/>
-      <c r="U57" s="13"/>
-      <c r="V57" s="13"/>
-      <c r="W57" s="13"/>
-      <c r="X57" s="13"/>
-      <c r="Y57" s="13"/>
-      <c r="Z57" s="13"/>
-      <c r="AA57" s="13"/>
-      <c r="AB57" s="13"/>
-      <c r="AC57" s="13"/>
-      <c r="AD57" s="13"/>
-      <c r="AE57" s="13"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="9"/>
+      <c r="Y57" s="9"/>
+      <c r="Z57" s="9"/>
+      <c r="AA57" s="9"/>
+      <c r="AB57" s="9"/>
+      <c r="AC57" s="9"/>
+      <c r="AD57" s="9"/>
+      <c r="AE57" s="9"/>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="13"/>
-      <c r="T58" s="13"/>
-      <c r="U58" s="13"/>
-      <c r="V58" s="13"/>
-      <c r="W58" s="13"/>
-      <c r="X58" s="13"/>
-      <c r="Y58" s="13"/>
-      <c r="Z58" s="13"/>
-      <c r="AA58" s="13"/>
-      <c r="AB58" s="13"/>
-      <c r="AC58" s="13"/>
-      <c r="AD58" s="13"/>
-      <c r="AE58" s="13"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="9"/>
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="9"/>
+      <c r="AA58" s="9"/>
+      <c r="AB58" s="9"/>
+      <c r="AC58" s="9"/>
+      <c r="AD58" s="9"/>
+      <c r="AE58" s="9"/>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13"/>
-      <c r="Q59" s="13"/>
-      <c r="R59" s="13"/>
-      <c r="S59" s="13"/>
-      <c r="T59" s="13"/>
-      <c r="U59" s="13"/>
-      <c r="V59" s="13"/>
-      <c r="W59" s="13"/>
-      <c r="X59" s="13"/>
-      <c r="Y59" s="13"/>
-      <c r="Z59" s="13"/>
-      <c r="AA59" s="13"/>
-      <c r="AB59" s="13"/>
-      <c r="AC59" s="13"/>
-      <c r="AD59" s="13"/>
-      <c r="AE59" s="13"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="9"/>
+      <c r="Y59" s="9"/>
+      <c r="Z59" s="9"/>
+      <c r="AA59" s="9"/>
+      <c r="AB59" s="9"/>
+      <c r="AC59" s="9"/>
+      <c r="AD59" s="9"/>
+      <c r="AE59" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="B57:AE59"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="AD11:AD12"/>
     <mergeCell ref="A1:O5"/>
     <mergeCell ref="P1:W5"/>
     <mergeCell ref="X1:Y1"/>
@@ -2284,6 +2277,13 @@
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="I11:I12"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="B57:AE59"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AD11:AD12"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Input Tidak Valid" error="Silakan pilih dari daftar yang tersedia." sqref="V13:Y42" xr:uid="{00000000-0002-0000-0000-000000000000}">
